--- a/数据集情况汇总 - 副本.xlsx
+++ b/数据集情况汇总 - 副本.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>数据集名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[non-coffee (less than 10% of coffee pixels),coffee (at least 85% of coffee pixels)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SAT-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,22 +124,6 @@
     <t>1 to 6</t>
   </si>
   <si>
-    <t>[barren land,
-trees,
-grassland,
-other ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[barren land,
-trees,
-grassland,
-roads,
-buildings,
-water bodies]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grassland</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +346,6 @@
     <t>['airplane', 'airport', 'bareland', 'baseball_diamond', 'basketball_court', 'beach', 'bridge', 'chaparral', 'cloud', 'commercial_area', 'dense_residential_area', 'desert', 'eroded_farmland', 'farmland', 'forest', 'freeway', 'golf_course', 'ground_track_field', 'harbor&amp;port', 'industrial_area', 'intersection', 'island', 'lake', 'meadow', 'mobile_home_park', 'mountain', 'overpass', 'park', 'parking_lot', 'parkway', 'railway', 'railway_station', 'river', 'roundabout', 'shipping_yard', 'snowberg', 'sparse_residential_area', 'stadium', 'storage_tank', 'swimmimg_pool', 'tennis_court', 'terrace', 'transmission_tower', 'vegetable_greenhouse', 'wetland', 'wind_turbine']</t>
   </si>
   <si>
-    <t>[no plantation,any presence of a plantation]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>any presence of a plantation</t>
   </si>
   <si>
@@ -383,6 +359,26 @@
   </si>
   <si>
     <t>['Airplane', 'Airport', 'Artificial dense forest land', 'Artificial sparse forest land', 'Bare land', 'Basketball court', 'Blue structured factory building', 'Building', 'Construction site', 'Cross river bridge', 'Crossroads', 'Dense tall building', 'Dock', 'Fish pond', 'Footbridge', 'Graff', 'Grassland', 'Low scattered building', 'Lrregular farmland', 'Medium density scattered building', 'Medium density structured building', 'Natural dense forest land', 'Natural sparse forest land', 'Oiltank', 'Overpass', 'Parking lot', 'Plasticgreenhouse', 'Playground', 'Railway', 'Red structured factory building', 'Refinery', 'Regular farmland', 'Scattered blue roof factory building', 'Scattered red roof factory building', 'Sewage plant-type-one', 'Sewage plant-type-two', 'Ship', 'Solar power station', 'Sparse residential area', 'Square', 'Steelsmelter', 'Storage land', 'Tennis court', 'Thermal power plant', 'Vegetable plot', 'Water']</t>
+  </si>
+  <si>
+    <t>["beach", "circle farmland", "cloud","desert", "forest", "mountain", "rectangle farmland", "residential", "river","snowberg"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["barren land","trees","grassland","other"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["barren land","trees","grassland","roads","buildings","water bodies"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["non-coffee (less than 10% of coffee pixels)","coffee (at least 85% of coffee pixels)"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["no plantation","any presence of a plantation"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -721,8 +717,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3124201</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1021,8 +1017,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7772400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3126889</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1363,14 +1359,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>5153890</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7783284</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -1401,8 +1397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15143017" y="59671528"/>
-          <a:ext cx="7786255" cy="3131128"/>
+          <a:off x="16805413" y="59510544"/>
+          <a:ext cx="8647044" cy="3122544"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1779,9 +1775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1875,10 +1871,10 @@
     </row>
     <row r="4" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -1895,13 +1891,16 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -1919,18 +1918,18 @@
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>500000</v>
@@ -1942,21 +1941,21 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>405000</v>
@@ -1968,10 +1967,10 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1997,18 +1996,18 @@
         <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>1232</v>
@@ -2020,18 +2019,18 @@
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -2049,18 +2048,18 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2">
         <v>31500</v>
@@ -2075,18 +2074,18 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
         <v>10000</v>
@@ -2098,21 +2097,21 @@
         <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>36000</v>
@@ -2124,21 +2123,21 @@
         <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2">
         <v>24000</v>
@@ -2150,21 +2149,21 @@
         <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
         <v>40408</v>
@@ -2178,13 +2177,13 @@
     </row>
     <row r="16" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>117000</v>
@@ -2196,21 +2195,21 @@
         <v>46</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>7389</v>
@@ -2222,18 +2221,18 @@
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -2248,21 +2247,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2">
         <v>30400</v>
@@ -2274,18 +2273,18 @@
         <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1">
         <v>0.5</v>
@@ -2294,7 +2293,7 @@
         <v>132716</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1">
         <v>62</v>
@@ -2302,10 +2301,10 @@
     </row>
     <row r="21" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -2320,21 +2319,21 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2">
         <v>1860</v>
@@ -2349,24 +2348,24 @@
         <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2">
         <v>590326</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F23" s="1">
         <v>43</v>
@@ -2374,13 +2373,13 @@
     </row>
     <row r="24" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2">
         <v>15000</v>
@@ -2395,18 +2394,18 @@
         <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2">
         <v>109161</v>
@@ -2418,10 +2417,10 @@
         <v>46</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
